--- a/p5.xlsx
+++ b/p5.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>mult W/O SIMD</t>
   </si>
@@ -32,6 +32,15 @@
   <si>
     <t>Reduction W/ SIMD</t>
   </si>
+  <si>
+    <t>Mult Speed up</t>
+  </si>
+  <si>
+    <t>Reduction speedup</t>
+  </si>
+  <si>
+    <t>Array size</t>
+  </si>
 </sst>
 </file>
 
@@ -39,7 +48,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -80,7 +89,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -416,29 +425,38 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -452,20 +470,23 @@
         <v>878.29</v>
       </c>
       <c r="D2">
-        <f>B2/C2</f>
-        <v>0.13874688314793521</v>
-      </c>
-      <c r="E2">
         <f>C2/B2</f>
         <v>7.2073691120958472</v>
       </c>
+      <c r="E2">
+        <v>128</v>
+      </c>
+      <c r="F2">
+        <v>881.97</v>
+      </c>
       <c r="G2">
-        <v>881.97</v>
+        <f>F2/E2</f>
+        <v>6.8903906250000002</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <f>A2+3199900</f>
+        <f t="shared" ref="A3:A12" si="0">A2+3199900</f>
         <v>3200900</v>
       </c>
       <c r="B3">
@@ -475,20 +496,23 @@
         <v>742.21</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D12" si="0">B3/C3</f>
-        <v>0.16774228318130988</v>
+        <f t="shared" ref="D3:D12" si="1">C3/B3</f>
+        <v>5.9615261044176711</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E12" si="1">C3/B3</f>
-        <v>5.9615261044176711</v>
+        <v>131.24</v>
+      </c>
+      <c r="F3">
+        <v>976.48</v>
       </c>
       <c r="G3">
-        <v>976.48</v>
+        <f t="shared" ref="G3:G12" si="2">F3/E3</f>
+        <v>7.4404145077720205</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <f>A3+3199900</f>
+        <f t="shared" si="0"/>
         <v>6400800</v>
       </c>
       <c r="B4">
@@ -498,20 +522,23 @@
         <v>730.2</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>0.17189811010682005</v>
+        <f t="shared" si="1"/>
+        <v>5.8173996175908229</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
-        <v>5.8173996175908229</v>
+        <v>131.87</v>
+      </c>
+      <c r="F4">
+        <v>996.64</v>
       </c>
       <c r="G4">
-        <v>996.64</v>
+        <f t="shared" si="2"/>
+        <v>7.5577462652612422</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <f>A4+3199900</f>
+        <f t="shared" si="0"/>
         <v>9600700</v>
       </c>
       <c r="B5">
@@ -521,20 +548,23 @@
         <v>729.37</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0.17216227703360434</v>
+        <f t="shared" si="1"/>
+        <v>5.8084733614716892</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
-        <v>5.8084733614716892</v>
+        <v>133.15</v>
+      </c>
+      <c r="F5">
+        <v>990.21</v>
       </c>
       <c r="G5">
-        <v>990.21</v>
+        <f t="shared" si="2"/>
+        <v>7.4368006008261363</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <f>A5+3199900</f>
+        <f t="shared" si="0"/>
         <v>12800600</v>
       </c>
       <c r="B6">
@@ -544,20 +574,23 @@
         <v>722.52</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0.16914410673752975</v>
+        <f t="shared" si="1"/>
+        <v>5.9121184845757302</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
-        <v>5.9121184845757302</v>
+        <v>136.88</v>
+      </c>
+      <c r="F6">
+        <v>982.9</v>
       </c>
       <c r="G6">
-        <v>982.9</v>
+        <f t="shared" si="2"/>
+        <v>7.1807422559906486</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <f>A6+3199900</f>
+        <f t="shared" si="0"/>
         <v>16000500</v>
       </c>
       <c r="B7">
@@ -567,20 +600,23 @@
         <v>725.71</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0.17312700665555111</v>
+        <f t="shared" si="1"/>
+        <v>5.7761063355619235</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
-        <v>5.7761063355619235</v>
+        <v>130.5</v>
+      </c>
+      <c r="F7">
+        <v>969.8</v>
       </c>
       <c r="G7">
-        <v>969.8</v>
+        <f t="shared" si="2"/>
+        <v>7.4314176245210728</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <f>A7+3199900</f>
+        <f t="shared" si="0"/>
         <v>19200400</v>
       </c>
       <c r="B8">
@@ -590,20 +626,23 @@
         <v>735.52</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0.2778034587774636</v>
+        <f t="shared" si="1"/>
+        <v>3.5996672050115008</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
-        <v>3.5996672050115008</v>
+        <v>187.86</v>
+      </c>
+      <c r="F8">
+        <v>998.32</v>
       </c>
       <c r="G8">
-        <v>998.32</v>
+        <f t="shared" si="2"/>
+        <v>5.3141701266900885</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <f>A8+3199900</f>
+        <f t="shared" si="0"/>
         <v>22400300</v>
       </c>
       <c r="B9">
@@ -613,20 +652,23 @@
         <v>730.65</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0.27375624443988233</v>
+        <f t="shared" si="1"/>
+        <v>3.6528847115288468</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
-        <v>3.6528847115288468</v>
+        <v>206.55</v>
+      </c>
+      <c r="F9">
+        <v>993.28</v>
       </c>
       <c r="G9">
-        <v>993.28</v>
+        <f t="shared" si="2"/>
+        <v>4.8089082546598885</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <f>A9+3199900</f>
+        <f t="shared" si="0"/>
         <v>25600200</v>
       </c>
       <c r="B10">
@@ -636,20 +678,23 @@
         <v>729.44</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>0.28242213204650141</v>
+        <f t="shared" si="1"/>
+        <v>3.5407989903402752</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
-        <v>3.5407989903402752</v>
+        <v>203.85</v>
+      </c>
+      <c r="F10">
+        <v>979.94</v>
       </c>
       <c r="G10">
-        <v>979.94</v>
+        <f t="shared" si="2"/>
+        <v>4.8071621290164339</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <f>A10+3199900</f>
+        <f t="shared" si="0"/>
         <v>28800100</v>
       </c>
       <c r="B11">
@@ -659,20 +704,23 @@
         <v>720.33</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>0.2967806422056557</v>
+        <f t="shared" si="1"/>
+        <v>3.3694920011226497</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
-        <v>3.3694920011226497</v>
+        <v>212.12</v>
+      </c>
+      <c r="F11">
+        <v>976.28</v>
       </c>
       <c r="G11">
-        <v>976.28</v>
+        <f t="shared" si="2"/>
+        <v>4.602489157080897</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <f>A11+3199900</f>
+        <f t="shared" si="0"/>
         <v>32000000</v>
       </c>
       <c r="B12">
@@ -682,15 +730,18 @@
         <v>741.53</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
-        <v>0.32059390719188702</v>
+        <f t="shared" si="1"/>
+        <v>3.1192108694737728</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
-        <v>3.1192108694737728</v>
+        <v>218.42</v>
+      </c>
+      <c r="F12">
+        <v>1001.52</v>
       </c>
       <c r="G12">
-        <v>1001.52</v>
+        <f t="shared" si="2"/>
+        <v>4.5852943869609009</v>
       </c>
     </row>
   </sheetData>
